--- a/План-график.xlsx
+++ b/План-график.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheny\OneDrive\Desktop\печеня\dev\techoavia-roman-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E421D6-DA0D-4EF7-94AB-EB94636533D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AA1D8C-8263-4B63-A5DD-39DFFF33FB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9C8ABFB4-97F9-4C74-AAC4-9F5D98746E67}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9C8ABFB4-97F9-4C74-AAC4-9F5D98746E67}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
   <si>
     <t>1. Рекомендуемые меры управления профрисками (организационные, технические и пр, кроме СИЗ)</t>
   </si>
@@ -286,6 +287,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -297,12 +304,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DDA95C9-1671-49AD-9D07-A790B0D6F9CC}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,10 +648,10 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="21"/>
+      <c r="L1" s="23"/>
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -661,9 +662,9 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="13"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
     </row>
     <row r="3" spans="1:13" s="4" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -690,8 +691,8 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -758,53 +759,53 @@
     </row>
     <row r="9" spans="1:13" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:13" s="4" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" s="4" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -869,18 +870,18 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
     </row>
     <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
@@ -932,18 +933,18 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
     </row>
     <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
@@ -962,4 +963,76 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E11AB2-1461-4D56-9B44-29AB9857F5FC}">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" ht="132.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/План-график.xlsx
+++ b/План-график.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheny\OneDrive\Desktop\печеня\dev\techoavia-roman-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AA1D8C-8263-4B63-A5DD-39DFFF33FB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28235CE-8FD4-4D2C-876D-0E6234A52CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9C8ABFB4-97F9-4C74-AAC4-9F5D98746E67}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>1. Рекомендуемые меры управления профрисками (организационные, технические и пр, кроме СИЗ)</t>
   </si>
@@ -619,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DDA95C9-1671-49AD-9D07-A790B0D6F9CC}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD20"/>
+      <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,7 +638,7 @@
     <col min="12" max="12" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -653,7 +653,7 @@
       </c>
       <c r="L1" s="23"/>
     </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -666,7 +666,7 @@
       <c r="K2" s="24"/>
       <c r="L2" s="24"/>
     </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -681,7 +681,7 @@
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
     </row>
-    <row r="4" spans="1:13" s="4" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -694,7 +694,7 @@
       <c r="K4" s="24"/>
       <c r="L4" s="24"/>
     </row>
-    <row r="5" spans="1:13" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -726,7 +726,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:13" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -757,7 +757,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="25" t="s">
         <v>18</v>
@@ -774,7 +774,7 @@
       <c r="L9" s="25"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" s="4" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>19</v>
       </c>
@@ -791,7 +791,7 @@
       <c r="L10" s="26"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" s="4" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="22" t="s">
         <v>20</v>
@@ -808,7 +808,7 @@
       <c r="L11" s="22"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" s="4" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -887,70 +887,24 @@
       <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" ht="132.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-    </row>
-    <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+    </row>
+    <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -970,7 +924,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/План-график.xlsx
+++ b/План-график.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheny\OneDrive\Desktop\печеня\dev\techoavia-roman-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28235CE-8FD4-4D2C-876D-0E6234A52CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6CF694-1AD3-461B-B3F6-DF4BFCBA759B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9C8ABFB4-97F9-4C74-AAC4-9F5D98746E67}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>1. Рекомендуемые меры управления профрисками (организационные, технические и пр, кроме СИЗ)</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>(ФИО)</t>
+  </si>
+  <si>
+    <t>Рекомендуемые к выдачи СИЗ</t>
   </si>
 </sst>
 </file>
@@ -924,7 +927,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,7 +977,7 @@
         <v>8</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="J3" s="19" t="s">
         <v>14</v>

--- a/План-график.xlsx
+++ b/План-график.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheny\OneDrive\Desktop\печеня\dev\techoavia-roman-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6CF694-1AD3-461B-B3F6-DF4BFCBA759B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B6EFCF-6BEB-442A-A707-607DD88F8E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9C8ABFB4-97F9-4C74-AAC4-9F5D98746E67}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Меры" sheetId="1" r:id="rId1"/>
+    <sheet name="Меры СИЗ" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -625,7 +625,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:XFD1048576"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,7 +927,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/План-график.xlsx
+++ b/План-график.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheny\OneDrive\Desktop\печеня\dev\techoavia-roman-backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\server1c\share\Специалист по ОХРАНЕ ТРУДА\9 ОПР на раб.месте\8 ОПР и Нормы СИЗ_ЦЛАТИ\для АСУ\шаблоны отчетов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B6EFCF-6BEB-442A-A707-607DD88F8E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5363E2-892B-4402-A9A5-9ADCE7EA791A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9C8ABFB4-97F9-4C74-AAC4-9F5D98746E67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9C8ABFB4-97F9-4C74-AAC4-9F5D98746E67}"/>
   </bookViews>
   <sheets>
     <sheet name="Меры" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>1. Рекомендуемые меры управления профрисками (организационные, технические и пр, кроме СИЗ)</t>
   </si>
@@ -107,13 +107,16 @@
   </si>
   <si>
     <t>Рекомендуемые к выдачи СИЗ</t>
+  </si>
+  <si>
+    <t>Ответственное лицо __________________ (подпись, фамилия, инициалы)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,29 +141,64 @@
       <charset val="204"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -230,83 +268,91 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DDA95C9-1671-49AD-9D07-A790B0D6F9CC}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,127 +687,127 @@
     <col min="12" max="12" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="23" t="s">
+    <row r="1" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="23"/>
-    </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="L1" s="11"/>
+    </row>
+    <row r="2" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="13"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-    </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="G3" s="6"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+    </row>
+    <row r="3" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="15"/>
       <c r="I3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-    </row>
-    <row r="4" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-    </row>
-    <row r="5" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="8" t="s">
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="8" t="s">
+      <c r="J5" s="20"/>
+      <c r="K5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11" t="s">
+      <c r="L5" s="20"/>
+    </row>
+    <row r="6" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="12"/>
-    </row>
-    <row r="8" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="L7" s="23"/>
+    </row>
+    <row r="8" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>18</v>
       </c>
@@ -775,139 +821,136 @@
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="22" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:13" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" ht="132.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+    <row r="14" spans="1:13" s="4" customFormat="1" ht="114.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B14" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C14" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D14" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E14" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F14" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G14" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H14" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="I14" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="J14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="19" t="s">
+      <c r="K14" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="20" t="s">
+      <c r="L14" s="30" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
     <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
+      <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
+      <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="A19" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -924,69 +967,74 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E11AB2-1461-4D56-9B44-29AB9857F5FC}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="4"/>
+    <col min="5" max="5" width="21.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" style="4" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="4"/>
+    <col min="12" max="12" width="12.7109375" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" ht="132.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+    <row r="2" spans="1:12" ht="149.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L2" s="6" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/План-график.xlsx
+++ b/План-график.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8286BD0D-3BA5-4809-910A-183FAE3DB469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBDE45B-93C2-428C-B65A-8A73C53E8892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Меры" sheetId="1" r:id="rId1"/>
     <sheet name="Меры СИЗ" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист1" sheetId="3" r:id="rId3"/>
+    <sheet name="Перечень мер СИЗ" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -410,6 +410,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -425,8 +428,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -770,10 +774,10 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="28"/>
+      <c r="L1" s="29"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -784,9 +788,9 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
@@ -813,8 +817,8 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
@@ -881,53 +885,53 @@
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1793,16 +1797,16 @@
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="28"/>
+      <c r="L1" s="29"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I2" s="5"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I3" s="7" t="s">
@@ -1815,8 +1819,8 @@
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I4" s="1"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I5" s="9" t="s">
@@ -1844,53 +1848,53 @@
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
       <c r="M11" s="2"/>
     </row>
     <row r="13" spans="1:13" s="23" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
@@ -1969,19 +1973,19 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
+    <row r="15" spans="1:13" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
     </row>
     <row r="16" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="17" s="26" customFormat="1" x14ac:dyDescent="0.2"/>
